--- a/py/EtchingReport.xlsx
+++ b/py/EtchingReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diereport\ex0.11\py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4ACC0831-8A7C-48A2-BD44-AE7E168BE509}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101723F7-D6D5-4C20-99F7-B0A62F7FFD42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1Bn" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4B1'!$A$1:$X$70</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2652,43 +2651,46 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2709,40 +2711,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3055,7 +3054,7 @@
   </sheetPr>
   <dimension ref="A1:BT70"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
@@ -3122,85 +3121,85 @@
   <sheetData>
     <row r="1" spans="1:72" ht="50.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="4"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="2"/>
       <c r="X1" s="44" t="s">
         <v>251</v>
       </c>
       <c r="Y1" s="4"/>
-      <c r="Z1" s="46" t="s">
+      <c r="Z1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="44" t="s">
         <v>251</v>
       </c>
       <c r="AW1" s="4"/>
-      <c r="AX1" s="46" t="s">
+      <c r="AX1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="46"/>
-      <c r="BH1" s="46"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="46"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="46"/>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="47"/>
-      <c r="BR1" s="47"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="74"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
+      <c r="BG1" s="74"/>
+      <c r="BH1" s="74"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="74"/>
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="74"/>
+      <c r="BO1" s="75"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
+      <c r="BR1" s="75"/>
       <c r="BS1" s="2"/>
       <c r="BT1" s="44" t="s">
         <v>251</v>
@@ -3282,181 +3281,181 @@
     </row>
     <row r="3" spans="1:72" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="48" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="57" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="58"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="53"/>
       <c r="Y3" s="4"/>
-      <c r="Z3" s="48" t="s">
+      <c r="Z3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="48" t="s">
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="55"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="57" t="s">
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="58"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="53"/>
       <c r="AW3" s="4"/>
-      <c r="AX3" s="48" t="s">
+      <c r="AX3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AY3" s="49"/>
-      <c r="AZ3" s="49"/>
-      <c r="BA3" s="50"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="52"/>
-      <c r="BD3" s="52"/>
-      <c r="BE3" s="52"/>
-      <c r="BF3" s="52"/>
-      <c r="BG3" s="53"/>
-      <c r="BH3" s="48" t="s">
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="BI3" s="49"/>
-      <c r="BJ3" s="50"/>
-      <c r="BK3" s="54"/>
-      <c r="BL3" s="52"/>
-      <c r="BM3" s="52"/>
-      <c r="BN3" s="55"/>
-      <c r="BO3" s="52"/>
-      <c r="BP3" s="52"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="57" t="s">
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="68"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="69"/>
+      <c r="BR3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="BS3" s="57"/>
-      <c r="BT3" s="58"/>
+      <c r="BS3" s="54"/>
+      <c r="BT3" s="53"/>
     </row>
     <row r="4" spans="1:72" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="48" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="58"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="53"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="48" t="s">
+      <c r="Z4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="48" t="s">
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="58"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="67"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="53"/>
       <c r="AW4" s="4"/>
-      <c r="AX4" s="48" t="s">
+      <c r="AX4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="AY4" s="49"/>
-      <c r="AZ4" s="49"/>
-      <c r="BA4" s="50"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="48" t="s">
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="71"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="67"/>
+      <c r="BD4" s="67"/>
+      <c r="BE4" s="67"/>
+      <c r="BF4" s="67"/>
+      <c r="BG4" s="73"/>
+      <c r="BH4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="BI4" s="49"/>
-      <c r="BJ4" s="50"/>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="52"/>
-      <c r="BM4" s="52"/>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="52"/>
-      <c r="BP4" s="52"/>
-      <c r="BQ4" s="56"/>
-      <c r="BR4" s="57"/>
-      <c r="BS4" s="57"/>
-      <c r="BT4" s="58"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="67"/>
+      <c r="BM4" s="67"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="67"/>
+      <c r="BP4" s="67"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="54"/>
+      <c r="BS4" s="54"/>
+      <c r="BT4" s="53"/>
     </row>
     <row r="5" spans="1:72" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -3534,163 +3533,163 @@
     </row>
     <row r="6" spans="1:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="62" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="63"/>
+      <c r="X6" s="64"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="59" t="s">
+      <c r="Z6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="60"/>
-      <c r="AR6" s="60"/>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="62" t="s">
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="AV6" s="63"/>
+      <c r="AV6" s="64"/>
       <c r="AW6" s="4"/>
-      <c r="AX6" s="59" t="s">
+      <c r="AX6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="60"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="60"/>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="60"/>
-      <c r="BJ6" s="60"/>
-      <c r="BK6" s="61"/>
-      <c r="BL6" s="60"/>
-      <c r="BM6" s="60"/>
-      <c r="BN6" s="61"/>
-      <c r="BO6" s="60"/>
-      <c r="BP6" s="60"/>
-      <c r="BQ6" s="60"/>
-      <c r="BR6" s="60"/>
-      <c r="BS6" s="62" t="s">
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="62"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="61"/>
+      <c r="BG6" s="62"/>
+      <c r="BH6" s="62"/>
+      <c r="BI6" s="61"/>
+      <c r="BJ6" s="61"/>
+      <c r="BK6" s="62"/>
+      <c r="BL6" s="61"/>
+      <c r="BM6" s="61"/>
+      <c r="BN6" s="62"/>
+      <c r="BO6" s="61"/>
+      <c r="BP6" s="61"/>
+      <c r="BQ6" s="61"/>
+      <c r="BR6" s="61"/>
+      <c r="BS6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="BT6" s="63"/>
+      <c r="BT6" s="64"/>
     </row>
     <row r="7" spans="1:72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="63"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="64"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="60"/>
-      <c r="AG7" s="60"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="60"/>
-      <c r="AU7" s="64"/>
-      <c r="AV7" s="63"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="64"/>
       <c r="AW7" s="4"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="60"/>
-      <c r="AZ7" s="60"/>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="60"/>
-      <c r="BJ7" s="60"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="60"/>
-      <c r="BM7" s="60"/>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="60"/>
-      <c r="BP7" s="60"/>
-      <c r="BQ7" s="60"/>
-      <c r="BR7" s="60"/>
-      <c r="BS7" s="64"/>
-      <c r="BT7" s="63"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="62"/>
+      <c r="BH7" s="62"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="62"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="62"/>
+      <c r="BO7" s="61"/>
+      <c r="BP7" s="61"/>
+      <c r="BQ7" s="61"/>
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="65"/>
+      <c r="BT7" s="64"/>
     </row>
     <row r="8" spans="1:72" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -8802,15 +8801,15 @@
       <c r="M59" s="25"/>
       <c r="N59" s="4"/>
       <c r="O59" s="32"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="67"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="47"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="32"/>
       <c r="AA59" s="25"/>
@@ -8826,15 +8825,15 @@
       <c r="AK59" s="25"/>
       <c r="AL59" s="4"/>
       <c r="AM59" s="32"/>
-      <c r="AN59" s="65"/>
-      <c r="AO59" s="66"/>
-      <c r="AP59" s="67"/>
-      <c r="AQ59" s="66"/>
-      <c r="AR59" s="66"/>
-      <c r="AS59" s="66"/>
-      <c r="AT59" s="66"/>
-      <c r="AU59" s="66"/>
-      <c r="AV59" s="67"/>
+      <c r="AN59" s="55"/>
+      <c r="AO59" s="46"/>
+      <c r="AP59" s="47"/>
+      <c r="AQ59" s="46"/>
+      <c r="AR59" s="46"/>
+      <c r="AS59" s="46"/>
+      <c r="AT59" s="46"/>
+      <c r="AU59" s="46"/>
+      <c r="AV59" s="47"/>
       <c r="AW59" s="4"/>
       <c r="AX59" s="32"/>
       <c r="AY59" s="25"/>
@@ -8850,175 +8849,175 @@
       <c r="BI59" s="25"/>
       <c r="BJ59" s="4"/>
       <c r="BK59" s="32"/>
-      <c r="BL59" s="65"/>
-      <c r="BM59" s="66"/>
-      <c r="BN59" s="67"/>
-      <c r="BO59" s="66"/>
-      <c r="BP59" s="66"/>
-      <c r="BQ59" s="66"/>
-      <c r="BR59" s="66"/>
-      <c r="BS59" s="66"/>
-      <c r="BT59" s="67"/>
+      <c r="BL59" s="55"/>
+      <c r="BM59" s="46"/>
+      <c r="BN59" s="47"/>
+      <c r="BO59" s="46"/>
+      <c r="BP59" s="46"/>
+      <c r="BQ59" s="46"/>
+      <c r="BR59" s="46"/>
+      <c r="BS59" s="46"/>
+      <c r="BT59" s="47"/>
     </row>
     <row r="60" spans="1:72" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="59"/>
       <c r="H60" s="28"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
       <c r="O60" s="32"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="67"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="47"/>
       <c r="Y60" s="4"/>
-      <c r="Z60" s="68" t="s">
+      <c r="Z60" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AA60" s="69"/>
-      <c r="AB60" s="69"/>
-      <c r="AC60" s="69"/>
-      <c r="AD60" s="70"/>
-      <c r="AE60" s="71"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="58"/>
+      <c r="AE60" s="59"/>
       <c r="AF60" s="28"/>
       <c r="AG60" s="30"/>
       <c r="AH60" s="30"/>
       <c r="AI60" s="29"/>
       <c r="AJ60" s="29"/>
-      <c r="AK60" s="66"/>
-      <c r="AL60" s="66"/>
+      <c r="AK60" s="46"/>
+      <c r="AL60" s="46"/>
       <c r="AM60" s="32"/>
-      <c r="AN60" s="66"/>
-      <c r="AO60" s="66"/>
-      <c r="AP60" s="67"/>
-      <c r="AQ60" s="66"/>
-      <c r="AR60" s="66"/>
-      <c r="AS60" s="66"/>
-      <c r="AT60" s="66"/>
-      <c r="AU60" s="66"/>
-      <c r="AV60" s="67"/>
+      <c r="AN60" s="46"/>
+      <c r="AO60" s="46"/>
+      <c r="AP60" s="47"/>
+      <c r="AQ60" s="46"/>
+      <c r="AR60" s="46"/>
+      <c r="AS60" s="46"/>
+      <c r="AT60" s="46"/>
+      <c r="AU60" s="46"/>
+      <c r="AV60" s="47"/>
       <c r="AW60" s="4"/>
-      <c r="AX60" s="68" t="s">
+      <c r="AX60" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AY60" s="69"/>
-      <c r="AZ60" s="69"/>
-      <c r="BA60" s="69"/>
-      <c r="BB60" s="70"/>
-      <c r="BC60" s="71"/>
+      <c r="AY60" s="57"/>
+      <c r="AZ60" s="57"/>
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="58"/>
+      <c r="BC60" s="59"/>
       <c r="BD60" s="28"/>
       <c r="BE60" s="30"/>
       <c r="BF60" s="30"/>
       <c r="BG60" s="29"/>
       <c r="BH60" s="29"/>
-      <c r="BI60" s="66"/>
-      <c r="BJ60" s="66"/>
+      <c r="BI60" s="46"/>
+      <c r="BJ60" s="46"/>
       <c r="BK60" s="32"/>
-      <c r="BL60" s="66"/>
-      <c r="BM60" s="66"/>
-      <c r="BN60" s="67"/>
-      <c r="BO60" s="66"/>
-      <c r="BP60" s="66"/>
-      <c r="BQ60" s="66"/>
-      <c r="BR60" s="66"/>
-      <c r="BS60" s="66"/>
-      <c r="BT60" s="67"/>
+      <c r="BL60" s="46"/>
+      <c r="BM60" s="46"/>
+      <c r="BN60" s="47"/>
+      <c r="BO60" s="46"/>
+      <c r="BP60" s="46"/>
+      <c r="BQ60" s="46"/>
+      <c r="BR60" s="46"/>
+      <c r="BS60" s="46"/>
+      <c r="BT60" s="47"/>
     </row>
     <row r="61" spans="1:72" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
       <c r="O61" s="32"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="67"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="47"/>
       <c r="Y61" s="4"/>
-      <c r="Z61" s="68" t="s">
+      <c r="Z61" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AA61" s="69"/>
-      <c r="AB61" s="69"/>
-      <c r="AC61" s="69"/>
-      <c r="AD61" s="70"/>
-      <c r="AE61" s="71"/>
+      <c r="AA61" s="57"/>
+      <c r="AB61" s="57"/>
+      <c r="AC61" s="57"/>
+      <c r="AD61" s="58"/>
+      <c r="AE61" s="59"/>
       <c r="AF61" s="30"/>
       <c r="AG61" s="30"/>
       <c r="AH61" s="30"/>
       <c r="AI61" s="29"/>
       <c r="AJ61" s="29"/>
-      <c r="AK61" s="66"/>
-      <c r="AL61" s="66"/>
+      <c r="AK61" s="46"/>
+      <c r="AL61" s="46"/>
       <c r="AM61" s="32"/>
-      <c r="AN61" s="66"/>
-      <c r="AO61" s="66"/>
-      <c r="AP61" s="67"/>
-      <c r="AQ61" s="66"/>
-      <c r="AR61" s="66"/>
-      <c r="AS61" s="66"/>
-      <c r="AT61" s="66"/>
-      <c r="AU61" s="66"/>
-      <c r="AV61" s="67"/>
+      <c r="AN61" s="46"/>
+      <c r="AO61" s="46"/>
+      <c r="AP61" s="47"/>
+      <c r="AQ61" s="46"/>
+      <c r="AR61" s="46"/>
+      <c r="AS61" s="46"/>
+      <c r="AT61" s="46"/>
+      <c r="AU61" s="46"/>
+      <c r="AV61" s="47"/>
       <c r="AW61" s="4"/>
-      <c r="AX61" s="68" t="s">
+      <c r="AX61" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AY61" s="69"/>
-      <c r="AZ61" s="69"/>
-      <c r="BA61" s="69"/>
-      <c r="BB61" s="70"/>
-      <c r="BC61" s="71"/>
+      <c r="AY61" s="57"/>
+      <c r="AZ61" s="57"/>
+      <c r="BA61" s="57"/>
+      <c r="BB61" s="58"/>
+      <c r="BC61" s="59"/>
       <c r="BD61" s="30"/>
       <c r="BE61" s="30"/>
       <c r="BF61" s="30"/>
       <c r="BG61" s="29"/>
       <c r="BH61" s="29"/>
-      <c r="BI61" s="66"/>
-      <c r="BJ61" s="66"/>
+      <c r="BI61" s="46"/>
+      <c r="BJ61" s="46"/>
       <c r="BK61" s="32"/>
-      <c r="BL61" s="66"/>
-      <c r="BM61" s="66"/>
-      <c r="BN61" s="67"/>
-      <c r="BO61" s="66"/>
-      <c r="BP61" s="66"/>
-      <c r="BQ61" s="66"/>
-      <c r="BR61" s="66"/>
-      <c r="BS61" s="66"/>
-      <c r="BT61" s="67"/>
+      <c r="BL61" s="46"/>
+      <c r="BM61" s="46"/>
+      <c r="BN61" s="47"/>
+      <c r="BO61" s="46"/>
+      <c r="BP61" s="46"/>
+      <c r="BQ61" s="46"/>
+      <c r="BR61" s="46"/>
+      <c r="BS61" s="46"/>
+      <c r="BT61" s="47"/>
     </row>
     <row r="62" spans="1:72" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
@@ -9036,15 +9035,15 @@
       <c r="M62" s="14"/>
       <c r="N62" s="4"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="67"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="47"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="5"/>
       <c r="AA62" s="6"/>
@@ -9060,15 +9059,15 @@
       <c r="AK62" s="14"/>
       <c r="AL62" s="4"/>
       <c r="AM62" s="32"/>
-      <c r="AN62" s="66"/>
-      <c r="AO62" s="66"/>
-      <c r="AP62" s="67"/>
-      <c r="AQ62" s="66"/>
-      <c r="AR62" s="66"/>
-      <c r="AS62" s="66"/>
-      <c r="AT62" s="66"/>
-      <c r="AU62" s="66"/>
-      <c r="AV62" s="67"/>
+      <c r="AN62" s="46"/>
+      <c r="AO62" s="46"/>
+      <c r="AP62" s="47"/>
+      <c r="AQ62" s="46"/>
+      <c r="AR62" s="46"/>
+      <c r="AS62" s="46"/>
+      <c r="AT62" s="46"/>
+      <c r="AU62" s="46"/>
+      <c r="AV62" s="47"/>
       <c r="AW62" s="4"/>
       <c r="AX62" s="5"/>
       <c r="AY62" s="6"/>
@@ -9084,471 +9083,471 @@
       <c r="BI62" s="14"/>
       <c r="BJ62" s="4"/>
       <c r="BK62" s="32"/>
-      <c r="BL62" s="66"/>
-      <c r="BM62" s="66"/>
-      <c r="BN62" s="67"/>
-      <c r="BO62" s="66"/>
-      <c r="BP62" s="66"/>
-      <c r="BQ62" s="66"/>
-      <c r="BR62" s="66"/>
-      <c r="BS62" s="66"/>
-      <c r="BT62" s="67"/>
+      <c r="BL62" s="46"/>
+      <c r="BM62" s="46"/>
+      <c r="BN62" s="47"/>
+      <c r="BO62" s="46"/>
+      <c r="BP62" s="46"/>
+      <c r="BQ62" s="46"/>
+      <c r="BR62" s="46"/>
+      <c r="BS62" s="46"/>
+      <c r="BT62" s="47"/>
     </row>
     <row r="63" spans="1:72" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
       <c r="J63" s="12"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="25"/>
       <c r="N63" s="4"/>
       <c r="O63" s="32"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="67"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="47"/>
       <c r="Y63" s="4"/>
-      <c r="Z63" s="72" t="s">
+      <c r="Z63" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="AA63" s="73"/>
-      <c r="AB63" s="73"/>
-      <c r="AC63" s="73"/>
-      <c r="AD63" s="74"/>
-      <c r="AE63" s="73"/>
-      <c r="AF63" s="73"/>
-      <c r="AG63" s="73"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="52"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
       <c r="AH63" s="12"/>
       <c r="AI63" s="8"/>
       <c r="AJ63" s="8"/>
       <c r="AK63" s="25"/>
       <c r="AL63" s="4"/>
       <c r="AM63" s="32"/>
-      <c r="AN63" s="66"/>
-      <c r="AO63" s="66"/>
-      <c r="AP63" s="67"/>
-      <c r="AQ63" s="66"/>
-      <c r="AR63" s="66"/>
-      <c r="AS63" s="66"/>
-      <c r="AT63" s="66"/>
-      <c r="AU63" s="66"/>
-      <c r="AV63" s="67"/>
+      <c r="AN63" s="46"/>
+      <c r="AO63" s="46"/>
+      <c r="AP63" s="47"/>
+      <c r="AQ63" s="46"/>
+      <c r="AR63" s="46"/>
+      <c r="AS63" s="46"/>
+      <c r="AT63" s="46"/>
+      <c r="AU63" s="46"/>
+      <c r="AV63" s="47"/>
       <c r="AW63" s="4"/>
-      <c r="AX63" s="72" t="s">
+      <c r="AX63" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="AY63" s="73"/>
-      <c r="AZ63" s="73"/>
-      <c r="BA63" s="73"/>
-      <c r="BB63" s="74"/>
-      <c r="BC63" s="73"/>
-      <c r="BD63" s="73"/>
-      <c r="BE63" s="73"/>
+      <c r="AY63" s="51"/>
+      <c r="AZ63" s="51"/>
+      <c r="BA63" s="51"/>
+      <c r="BB63" s="52"/>
+      <c r="BC63" s="51"/>
+      <c r="BD63" s="51"/>
+      <c r="BE63" s="51"/>
       <c r="BF63" s="12"/>
       <c r="BG63" s="8"/>
       <c r="BH63" s="8"/>
       <c r="BI63" s="25"/>
       <c r="BJ63" s="4"/>
       <c r="BK63" s="32"/>
-      <c r="BL63" s="66"/>
-      <c r="BM63" s="66"/>
-      <c r="BN63" s="67"/>
-      <c r="BO63" s="66"/>
-      <c r="BP63" s="66"/>
-      <c r="BQ63" s="66"/>
-      <c r="BR63" s="66"/>
-      <c r="BS63" s="66"/>
-      <c r="BT63" s="67"/>
+      <c r="BL63" s="46"/>
+      <c r="BM63" s="46"/>
+      <c r="BN63" s="47"/>
+      <c r="BO63" s="46"/>
+      <c r="BP63" s="46"/>
+      <c r="BQ63" s="46"/>
+      <c r="BR63" s="46"/>
+      <c r="BS63" s="46"/>
+      <c r="BT63" s="47"/>
     </row>
     <row r="64" spans="1:72" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
       <c r="J64" s="12"/>
       <c r="K64" s="36"/>
       <c r="L64" s="33"/>
       <c r="M64" s="25"/>
       <c r="N64" s="4"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="67"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="47"/>
       <c r="Y64" s="4"/>
-      <c r="Z64" s="74"/>
-      <c r="AA64" s="73"/>
-      <c r="AB64" s="73"/>
-      <c r="AC64" s="73"/>
-      <c r="AD64" s="74"/>
-      <c r="AE64" s="73"/>
-      <c r="AF64" s="73"/>
-      <c r="AG64" s="73"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="52"/>
+      <c r="AE64" s="51"/>
+      <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
       <c r="AH64" s="12"/>
       <c r="AI64" s="36"/>
       <c r="AJ64" s="33"/>
       <c r="AK64" s="25"/>
       <c r="AL64" s="4"/>
       <c r="AM64" s="32"/>
-      <c r="AN64" s="66"/>
-      <c r="AO64" s="66"/>
-      <c r="AP64" s="67"/>
-      <c r="AQ64" s="66"/>
-      <c r="AR64" s="66"/>
-      <c r="AS64" s="66"/>
-      <c r="AT64" s="66"/>
-      <c r="AU64" s="66"/>
-      <c r="AV64" s="67"/>
+      <c r="AN64" s="46"/>
+      <c r="AO64" s="46"/>
+      <c r="AP64" s="47"/>
+      <c r="AQ64" s="46"/>
+      <c r="AR64" s="46"/>
+      <c r="AS64" s="46"/>
+      <c r="AT64" s="46"/>
+      <c r="AU64" s="46"/>
+      <c r="AV64" s="47"/>
       <c r="AW64" s="4"/>
-      <c r="AX64" s="74"/>
-      <c r="AY64" s="73"/>
-      <c r="AZ64" s="73"/>
-      <c r="BA64" s="73"/>
-      <c r="BB64" s="74"/>
-      <c r="BC64" s="73"/>
-      <c r="BD64" s="73"/>
-      <c r="BE64" s="73"/>
+      <c r="AX64" s="52"/>
+      <c r="AY64" s="51"/>
+      <c r="AZ64" s="51"/>
+      <c r="BA64" s="51"/>
+      <c r="BB64" s="52"/>
+      <c r="BC64" s="51"/>
+      <c r="BD64" s="51"/>
+      <c r="BE64" s="51"/>
       <c r="BF64" s="12"/>
       <c r="BG64" s="36"/>
       <c r="BH64" s="33"/>
       <c r="BI64" s="25"/>
       <c r="BJ64" s="4"/>
       <c r="BK64" s="32"/>
-      <c r="BL64" s="66"/>
-      <c r="BM64" s="66"/>
-      <c r="BN64" s="67"/>
-      <c r="BO64" s="66"/>
-      <c r="BP64" s="66"/>
-      <c r="BQ64" s="66"/>
-      <c r="BR64" s="66"/>
-      <c r="BS64" s="66"/>
-      <c r="BT64" s="67"/>
+      <c r="BL64" s="46"/>
+      <c r="BM64" s="46"/>
+      <c r="BN64" s="47"/>
+      <c r="BO64" s="46"/>
+      <c r="BP64" s="46"/>
+      <c r="BQ64" s="46"/>
+      <c r="BR64" s="46"/>
+      <c r="BS64" s="46"/>
+      <c r="BT64" s="47"/>
     </row>
     <row r="65" spans="1:72" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
       <c r="J65" s="12"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
       <c r="M65" s="25"/>
       <c r="N65" s="4"/>
       <c r="O65" s="32"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="67"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="47"/>
       <c r="Y65" s="4"/>
-      <c r="Z65" s="74"/>
-      <c r="AA65" s="73"/>
-      <c r="AB65" s="73"/>
-      <c r="AC65" s="73"/>
-      <c r="AD65" s="74"/>
-      <c r="AE65" s="73"/>
-      <c r="AF65" s="73"/>
-      <c r="AG65" s="73"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="52"/>
+      <c r="AE65" s="51"/>
+      <c r="AF65" s="51"/>
+      <c r="AG65" s="51"/>
       <c r="AH65" s="12"/>
       <c r="AI65" s="36"/>
       <c r="AJ65" s="33"/>
       <c r="AK65" s="25"/>
       <c r="AL65" s="4"/>
       <c r="AM65" s="32"/>
-      <c r="AN65" s="66"/>
-      <c r="AO65" s="66"/>
-      <c r="AP65" s="67"/>
-      <c r="AQ65" s="66"/>
-      <c r="AR65" s="66"/>
-      <c r="AS65" s="66"/>
-      <c r="AT65" s="66"/>
-      <c r="AU65" s="66"/>
-      <c r="AV65" s="67"/>
+      <c r="AN65" s="46"/>
+      <c r="AO65" s="46"/>
+      <c r="AP65" s="47"/>
+      <c r="AQ65" s="46"/>
+      <c r="AR65" s="46"/>
+      <c r="AS65" s="46"/>
+      <c r="AT65" s="46"/>
+      <c r="AU65" s="46"/>
+      <c r="AV65" s="47"/>
       <c r="AW65" s="4"/>
-      <c r="AX65" s="74"/>
-      <c r="AY65" s="73"/>
-      <c r="AZ65" s="73"/>
-      <c r="BA65" s="73"/>
-      <c r="BB65" s="74"/>
-      <c r="BC65" s="73"/>
-      <c r="BD65" s="73"/>
-      <c r="BE65" s="73"/>
+      <c r="AX65" s="52"/>
+      <c r="AY65" s="51"/>
+      <c r="AZ65" s="51"/>
+      <c r="BA65" s="51"/>
+      <c r="BB65" s="52"/>
+      <c r="BC65" s="51"/>
+      <c r="BD65" s="51"/>
+      <c r="BE65" s="51"/>
       <c r="BF65" s="12"/>
       <c r="BG65" s="36"/>
       <c r="BH65" s="33"/>
       <c r="BI65" s="25"/>
       <c r="BJ65" s="4"/>
       <c r="BK65" s="32"/>
-      <c r="BL65" s="66"/>
-      <c r="BM65" s="66"/>
-      <c r="BN65" s="67"/>
-      <c r="BO65" s="66"/>
-      <c r="BP65" s="66"/>
-      <c r="BQ65" s="66"/>
-      <c r="BR65" s="66"/>
-      <c r="BS65" s="66"/>
-      <c r="BT65" s="67"/>
+      <c r="BL65" s="46"/>
+      <c r="BM65" s="46"/>
+      <c r="BN65" s="47"/>
+      <c r="BO65" s="46"/>
+      <c r="BP65" s="46"/>
+      <c r="BQ65" s="46"/>
+      <c r="BR65" s="46"/>
+      <c r="BS65" s="46"/>
+      <c r="BT65" s="47"/>
     </row>
     <row r="66" spans="1:72" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
       <c r="J66" s="12"/>
       <c r="K66" s="36"/>
       <c r="L66" s="33"/>
       <c r="M66" s="25"/>
       <c r="N66" s="4"/>
       <c r="O66" s="32"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="67"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="47"/>
       <c r="Y66" s="4"/>
-      <c r="Z66" s="74"/>
-      <c r="AA66" s="73"/>
-      <c r="AB66" s="73"/>
-      <c r="AC66" s="73"/>
-      <c r="AD66" s="74"/>
-      <c r="AE66" s="73"/>
-      <c r="AF66" s="73"/>
-      <c r="AG66" s="73"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="51"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="52"/>
+      <c r="AE66" s="51"/>
+      <c r="AF66" s="51"/>
+      <c r="AG66" s="51"/>
       <c r="AH66" s="12"/>
       <c r="AI66" s="36"/>
       <c r="AJ66" s="33"/>
       <c r="AK66" s="25"/>
       <c r="AL66" s="4"/>
       <c r="AM66" s="32"/>
-      <c r="AN66" s="66"/>
-      <c r="AO66" s="66"/>
-      <c r="AP66" s="67"/>
-      <c r="AQ66" s="66"/>
-      <c r="AR66" s="66"/>
-      <c r="AS66" s="66"/>
-      <c r="AT66" s="66"/>
-      <c r="AU66" s="66"/>
-      <c r="AV66" s="67"/>
+      <c r="AN66" s="46"/>
+      <c r="AO66" s="46"/>
+      <c r="AP66" s="47"/>
+      <c r="AQ66" s="46"/>
+      <c r="AR66" s="46"/>
+      <c r="AS66" s="46"/>
+      <c r="AT66" s="46"/>
+      <c r="AU66" s="46"/>
+      <c r="AV66" s="47"/>
       <c r="AW66" s="4"/>
-      <c r="AX66" s="74"/>
-      <c r="AY66" s="73"/>
-      <c r="AZ66" s="73"/>
-      <c r="BA66" s="73"/>
-      <c r="BB66" s="74"/>
-      <c r="BC66" s="73"/>
-      <c r="BD66" s="73"/>
-      <c r="BE66" s="73"/>
+      <c r="AX66" s="52"/>
+      <c r="AY66" s="51"/>
+      <c r="AZ66" s="51"/>
+      <c r="BA66" s="51"/>
+      <c r="BB66" s="52"/>
+      <c r="BC66" s="51"/>
+      <c r="BD66" s="51"/>
+      <c r="BE66" s="51"/>
       <c r="BF66" s="12"/>
       <c r="BG66" s="36"/>
       <c r="BH66" s="33"/>
       <c r="BI66" s="25"/>
       <c r="BJ66" s="4"/>
       <c r="BK66" s="32"/>
-      <c r="BL66" s="66"/>
-      <c r="BM66" s="66"/>
-      <c r="BN66" s="67"/>
-      <c r="BO66" s="66"/>
-      <c r="BP66" s="66"/>
-      <c r="BQ66" s="66"/>
-      <c r="BR66" s="66"/>
-      <c r="BS66" s="66"/>
-      <c r="BT66" s="67"/>
+      <c r="BL66" s="46"/>
+      <c r="BM66" s="46"/>
+      <c r="BN66" s="47"/>
+      <c r="BO66" s="46"/>
+      <c r="BP66" s="46"/>
+      <c r="BQ66" s="46"/>
+      <c r="BR66" s="46"/>
+      <c r="BS66" s="46"/>
+      <c r="BT66" s="47"/>
     </row>
     <row r="67" spans="1:72" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="10"/>
       <c r="K67" s="11"/>
       <c r="L67" s="33"/>
       <c r="M67" s="25"/>
       <c r="N67" s="4"/>
       <c r="O67" s="32"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="67"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="47"/>
       <c r="Y67" s="4"/>
-      <c r="Z67" s="58" t="s">
+      <c r="Z67" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="AA67" s="57"/>
-      <c r="AB67" s="57"/>
-      <c r="AC67" s="57"/>
-      <c r="AD67" s="58"/>
-      <c r="AE67" s="57"/>
-      <c r="AF67" s="57"/>
-      <c r="AG67" s="57"/>
+      <c r="AA67" s="54"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="54"/>
+      <c r="AD67" s="53"/>
+      <c r="AE67" s="54"/>
+      <c r="AF67" s="54"/>
+      <c r="AG67" s="54"/>
       <c r="AH67" s="10"/>
       <c r="AI67" s="11"/>
       <c r="AJ67" s="33"/>
       <c r="AK67" s="25"/>
       <c r="AL67" s="4"/>
       <c r="AM67" s="32"/>
-      <c r="AN67" s="66"/>
-      <c r="AO67" s="66"/>
-      <c r="AP67" s="67"/>
-      <c r="AQ67" s="66"/>
-      <c r="AR67" s="66"/>
-      <c r="AS67" s="66"/>
-      <c r="AT67" s="66"/>
-      <c r="AU67" s="66"/>
-      <c r="AV67" s="67"/>
+      <c r="AN67" s="46"/>
+      <c r="AO67" s="46"/>
+      <c r="AP67" s="47"/>
+      <c r="AQ67" s="46"/>
+      <c r="AR67" s="46"/>
+      <c r="AS67" s="46"/>
+      <c r="AT67" s="46"/>
+      <c r="AU67" s="46"/>
+      <c r="AV67" s="47"/>
       <c r="AW67" s="4"/>
-      <c r="AX67" s="58" t="s">
+      <c r="AX67" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="AY67" s="57"/>
-      <c r="AZ67" s="57"/>
-      <c r="BA67" s="57"/>
-      <c r="BB67" s="58"/>
-      <c r="BC67" s="57"/>
-      <c r="BD67" s="57"/>
-      <c r="BE67" s="57"/>
+      <c r="AY67" s="54"/>
+      <c r="AZ67" s="54"/>
+      <c r="BA67" s="54"/>
+      <c r="BB67" s="53"/>
+      <c r="BC67" s="54"/>
+      <c r="BD67" s="54"/>
+      <c r="BE67" s="54"/>
       <c r="BF67" s="10"/>
       <c r="BG67" s="11"/>
       <c r="BH67" s="33"/>
       <c r="BI67" s="25"/>
       <c r="BJ67" s="4"/>
       <c r="BK67" s="32"/>
-      <c r="BL67" s="66"/>
-      <c r="BM67" s="66"/>
-      <c r="BN67" s="67"/>
-      <c r="BO67" s="66"/>
-      <c r="BP67" s="66"/>
-      <c r="BQ67" s="66"/>
-      <c r="BR67" s="66"/>
-      <c r="BS67" s="66"/>
-      <c r="BT67" s="67"/>
+      <c r="BL67" s="46"/>
+      <c r="BM67" s="46"/>
+      <c r="BN67" s="47"/>
+      <c r="BO67" s="46"/>
+      <c r="BP67" s="46"/>
+      <c r="BQ67" s="46"/>
+      <c r="BR67" s="46"/>
+      <c r="BS67" s="46"/>
+      <c r="BT67" s="47"/>
     </row>
     <row r="68" spans="1:72" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
       <c r="J68" s="14"/>
       <c r="K68" s="31"/>
       <c r="L68" s="33"/>
       <c r="M68" s="25"/>
       <c r="N68" s="4"/>
       <c r="O68" s="32"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="67"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="47"/>
       <c r="Y68" s="4"/>
-      <c r="Z68" s="75"/>
-      <c r="AA68" s="76"/>
-      <c r="AB68" s="76"/>
-      <c r="AC68" s="76"/>
-      <c r="AD68" s="75"/>
-      <c r="AE68" s="76"/>
-      <c r="AF68" s="76"/>
-      <c r="AG68" s="76"/>
+      <c r="Z68" s="48"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+      <c r="AD68" s="48"/>
+      <c r="AE68" s="49"/>
+      <c r="AF68" s="49"/>
+      <c r="AG68" s="49"/>
       <c r="AH68" s="14"/>
       <c r="AI68" s="31"/>
       <c r="AJ68" s="33"/>
       <c r="AK68" s="25"/>
       <c r="AL68" s="4"/>
       <c r="AM68" s="32"/>
-      <c r="AN68" s="66"/>
-      <c r="AO68" s="66"/>
-      <c r="AP68" s="67"/>
-      <c r="AQ68" s="66"/>
-      <c r="AR68" s="66"/>
-      <c r="AS68" s="66"/>
-      <c r="AT68" s="66"/>
-      <c r="AU68" s="66"/>
-      <c r="AV68" s="67"/>
+      <c r="AN68" s="46"/>
+      <c r="AO68" s="46"/>
+      <c r="AP68" s="47"/>
+      <c r="AQ68" s="46"/>
+      <c r="AR68" s="46"/>
+      <c r="AS68" s="46"/>
+      <c r="AT68" s="46"/>
+      <c r="AU68" s="46"/>
+      <c r="AV68" s="47"/>
       <c r="AW68" s="4"/>
-      <c r="AX68" s="75"/>
-      <c r="AY68" s="76"/>
-      <c r="AZ68" s="76"/>
-      <c r="BA68" s="76"/>
-      <c r="BB68" s="75"/>
-      <c r="BC68" s="76"/>
-      <c r="BD68" s="76"/>
-      <c r="BE68" s="76"/>
+      <c r="AX68" s="48"/>
+      <c r="AY68" s="49"/>
+      <c r="AZ68" s="49"/>
+      <c r="BA68" s="49"/>
+      <c r="BB68" s="48"/>
+      <c r="BC68" s="49"/>
+      <c r="BD68" s="49"/>
+      <c r="BE68" s="49"/>
       <c r="BF68" s="14"/>
       <c r="BG68" s="31"/>
       <c r="BH68" s="33"/>
       <c r="BI68" s="25"/>
       <c r="BJ68" s="4"/>
       <c r="BK68" s="32"/>
-      <c r="BL68" s="66"/>
-      <c r="BM68" s="66"/>
-      <c r="BN68" s="67"/>
-      <c r="BO68" s="66"/>
-      <c r="BP68" s="66"/>
-      <c r="BQ68" s="66"/>
-      <c r="BR68" s="66"/>
-      <c r="BS68" s="66"/>
-      <c r="BT68" s="67"/>
+      <c r="BL68" s="46"/>
+      <c r="BM68" s="46"/>
+      <c r="BN68" s="47"/>
+      <c r="BO68" s="46"/>
+      <c r="BP68" s="46"/>
+      <c r="BQ68" s="46"/>
+      <c r="BR68" s="46"/>
+      <c r="BS68" s="46"/>
+      <c r="BT68" s="47"/>
     </row>
     <row r="69" spans="1:72" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
@@ -9566,17 +9565,17 @@
       <c r="M69" s="25"/>
       <c r="N69" s="4"/>
       <c r="O69" s="32"/>
-      <c r="P69" s="66" t="s">
+      <c r="P69" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
-      <c r="V69" s="66"/>
-      <c r="W69" s="66"/>
-      <c r="X69" s="67"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="47"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="32"/>
       <c r="AA69" s="25"/>
@@ -9592,17 +9591,17 @@
       <c r="AK69" s="25"/>
       <c r="AL69" s="4"/>
       <c r="AM69" s="32"/>
-      <c r="AN69" s="66" t="s">
+      <c r="AN69" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="AO69" s="66"/>
-      <c r="AP69" s="67"/>
-      <c r="AQ69" s="66"/>
-      <c r="AR69" s="66"/>
-      <c r="AS69" s="66"/>
-      <c r="AT69" s="66"/>
-      <c r="AU69" s="66"/>
-      <c r="AV69" s="67"/>
+      <c r="AO69" s="46"/>
+      <c r="AP69" s="47"/>
+      <c r="AQ69" s="46"/>
+      <c r="AR69" s="46"/>
+      <c r="AS69" s="46"/>
+      <c r="AT69" s="46"/>
+      <c r="AU69" s="46"/>
+      <c r="AV69" s="47"/>
       <c r="AW69" s="4"/>
       <c r="AX69" s="32"/>
       <c r="AY69" s="25"/>
@@ -9618,17 +9617,17 @@
       <c r="BI69" s="25"/>
       <c r="BJ69" s="4"/>
       <c r="BK69" s="32"/>
-      <c r="BL69" s="66" t="s">
+      <c r="BL69" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="BM69" s="66"/>
-      <c r="BN69" s="67"/>
-      <c r="BO69" s="66"/>
-      <c r="BP69" s="66"/>
-      <c r="BQ69" s="66"/>
-      <c r="BR69" s="66"/>
-      <c r="BS69" s="66"/>
-      <c r="BT69" s="67"/>
+      <c r="BM69" s="46"/>
+      <c r="BN69" s="47"/>
+      <c r="BO69" s="46"/>
+      <c r="BP69" s="46"/>
+      <c r="BQ69" s="46"/>
+      <c r="BR69" s="46"/>
+      <c r="BS69" s="46"/>
+      <c r="BT69" s="47"/>
     </row>
     <row r="70" spans="1:72" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
@@ -9754,40 +9753,22 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="BL69:BT69"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="Z68:AG68"/>
-    <mergeCell ref="AX68:BE68"/>
-    <mergeCell ref="P69:X69"/>
-    <mergeCell ref="AN69:AV69"/>
-    <mergeCell ref="Z63:AG66"/>
-    <mergeCell ref="AX63:BE66"/>
-    <mergeCell ref="B67:I67"/>
-    <mergeCell ref="Z67:AG67"/>
-    <mergeCell ref="AX67:BE67"/>
-    <mergeCell ref="P59:X68"/>
-    <mergeCell ref="AN59:AV68"/>
-    <mergeCell ref="BL59:BT68"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="Z60:AE60"/>
-    <mergeCell ref="AK60:AL60"/>
-    <mergeCell ref="AX60:BC60"/>
-    <mergeCell ref="BI60:BJ60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="Z61:AE61"/>
-    <mergeCell ref="AK61:AL61"/>
-    <mergeCell ref="AX61:BC61"/>
-    <mergeCell ref="BI61:BJ61"/>
-    <mergeCell ref="B63:I66"/>
-    <mergeCell ref="BR4:BT4"/>
-    <mergeCell ref="B6:V7"/>
-    <mergeCell ref="W6:X7"/>
-    <mergeCell ref="Z6:AT7"/>
-    <mergeCell ref="AU6:AV7"/>
-    <mergeCell ref="AX6:BR7"/>
-    <mergeCell ref="BS6:BT7"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="Z1:AT1"/>
+    <mergeCell ref="AX1:BR1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="AD3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="BB3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
     <mergeCell ref="BK3:BQ3"/>
     <mergeCell ref="BR3:BT3"/>
     <mergeCell ref="B4:E4"/>
@@ -9804,22 +9785,40 @@
     <mergeCell ref="BB4:BG4"/>
     <mergeCell ref="BH4:BJ4"/>
     <mergeCell ref="BK4:BQ4"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="Z1:AT1"/>
-    <mergeCell ref="AX1:BR1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AX3:BA3"/>
-    <mergeCell ref="BB3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="BR4:BT4"/>
+    <mergeCell ref="B6:V7"/>
+    <mergeCell ref="W6:X7"/>
+    <mergeCell ref="Z6:AT7"/>
+    <mergeCell ref="AU6:AV7"/>
+    <mergeCell ref="AX6:BR7"/>
+    <mergeCell ref="BS6:BT7"/>
+    <mergeCell ref="Z63:AG66"/>
+    <mergeCell ref="AX63:BE66"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="Z67:AG67"/>
+    <mergeCell ref="AX67:BE67"/>
+    <mergeCell ref="P59:X68"/>
+    <mergeCell ref="AN59:AV68"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="Z60:AE60"/>
+    <mergeCell ref="AK60:AL60"/>
+    <mergeCell ref="AX60:BC60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="Z61:AE61"/>
+    <mergeCell ref="AK61:AL61"/>
+    <mergeCell ref="BL69:BT69"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="Z68:AG68"/>
+    <mergeCell ref="AX68:BE68"/>
+    <mergeCell ref="P69:X69"/>
+    <mergeCell ref="AN69:AV69"/>
+    <mergeCell ref="BL59:BT68"/>
+    <mergeCell ref="BI60:BJ60"/>
+    <mergeCell ref="AX61:BC61"/>
+    <mergeCell ref="BI61:BJ61"/>
+    <mergeCell ref="B63:I66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" orientation="portrait" r:id="rId1"/>
@@ -9864,29 +9863,29 @@
   <sheetData>
     <row r="1" spans="1:37" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="2"/>
       <c r="X1" s="3" t="s">
         <v>166</v>
@@ -9946,35 +9945,35 @@
     </row>
     <row r="3" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="48" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="57" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -9991,33 +9990,33 @@
     </row>
     <row r="4" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="48" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -10073,33 +10072,33 @@
     </row>
     <row r="6" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="62" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="64"/>
+      <c r="X6" s="65"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -10116,29 +10115,29 @@
     </row>
     <row r="7" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -12476,15 +12475,15 @@
       <c r="M59" s="25"/>
       <c r="N59" s="4"/>
       <c r="O59" s="32"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
@@ -12501,31 +12500,31 @@
     </row>
     <row r="60" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="59"/>
       <c r="H60" s="28"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
       <c r="O60" s="32"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
@@ -12542,31 +12541,31 @@
     </row>
     <row r="61" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
       <c r="O61" s="32"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
@@ -12597,15 +12596,15 @@
       <c r="M62" s="14"/>
       <c r="N62" s="4"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="66"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
@@ -12622,31 +12621,31 @@
     </row>
     <row r="63" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
       <c r="J63" s="12"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="25"/>
       <c r="N63" s="4"/>
       <c r="O63" s="32"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
@@ -12663,29 +12662,29 @@
     </row>
     <row r="64" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
       <c r="J64" s="12"/>
       <c r="K64" s="36"/>
       <c r="L64" s="33"/>
       <c r="M64" s="25"/>
       <c r="N64" s="4"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
@@ -12702,29 +12701,29 @@
     </row>
     <row r="65" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
       <c r="J65" s="12"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
       <c r="M65" s="25"/>
       <c r="N65" s="4"/>
       <c r="O65" s="32"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="66"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -12741,29 +12740,29 @@
     </row>
     <row r="66" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
       <c r="J66" s="12"/>
       <c r="K66" s="36"/>
       <c r="L66" s="33"/>
       <c r="M66" s="25"/>
       <c r="N66" s="4"/>
       <c r="O66" s="32"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="66"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -12780,31 +12779,31 @@
     </row>
     <row r="67" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="10"/>
       <c r="K67" s="11"/>
       <c r="L67" s="33"/>
       <c r="M67" s="25"/>
       <c r="N67" s="4"/>
       <c r="O67" s="32"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
@@ -12821,29 +12820,29 @@
     </row>
     <row r="68" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
       <c r="J68" s="14"/>
       <c r="K68" s="31"/>
       <c r="L68" s="33"/>
       <c r="M68" s="25"/>
       <c r="N68" s="4"/>
       <c r="O68" s="32"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
@@ -12874,17 +12873,17 @@
       <c r="M69" s="25"/>
       <c r="N69" s="4"/>
       <c r="O69" s="32"/>
-      <c r="P69" s="66" t="s">
+      <c r="P69" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
-      <c r="V69" s="66"/>
-      <c r="W69" s="66"/>
-      <c r="X69" s="66"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -12956,6 +12955,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:X4"/>
     <mergeCell ref="P69:X69"/>
     <mergeCell ref="B6:V7"/>
     <mergeCell ref="W6:X7"/>
@@ -12968,17 +12978,6 @@
     <mergeCell ref="B63:I66"/>
     <mergeCell ref="B67:I67"/>
     <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
@@ -12992,7 +12991,9 @@
   </sheetPr>
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A21" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:U3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13019,29 +13020,29 @@
   <sheetData>
     <row r="1" spans="1:35" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="2"/>
       <c r="X1" s="3" t="s">
         <v>166</v>
@@ -13097,35 +13098,35 @@
     </row>
     <row r="3" spans="1:35" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="48" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="57" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -13140,33 +13141,33 @@
     </row>
     <row r="4" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="48" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -13218,33 +13219,33 @@
     </row>
     <row r="6" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="62" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="64"/>
+      <c r="X6" s="65"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -13259,29 +13260,29 @@
     </row>
     <row r="7" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -15162,10 +15163,10 @@
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
-      <c r="AF50" s="66"/>
-      <c r="AG50" s="66"/>
-      <c r="AH50" s="66"/>
-      <c r="AI50" s="66"/>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="46"/>
     </row>
     <row r="51" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
@@ -15515,15 +15516,15 @@
       <c r="M59" s="25"/>
       <c r="N59" s="4"/>
       <c r="O59" s="32"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
@@ -15538,31 +15539,31 @@
     </row>
     <row r="60" spans="1:35" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="59"/>
       <c r="H60" s="28"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
       <c r="O60" s="32"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
@@ -15577,31 +15578,31 @@
     </row>
     <row r="61" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
       <c r="O61" s="32"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
@@ -15630,15 +15631,15 @@
       <c r="M62" s="14"/>
       <c r="N62" s="4"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="66"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
@@ -15653,31 +15654,31 @@
     </row>
     <row r="63" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
       <c r="J63" s="12"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="25"/>
       <c r="N63" s="4"/>
       <c r="O63" s="32"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
@@ -15692,29 +15693,29 @@
     </row>
     <row r="64" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
       <c r="J64" s="12"/>
       <c r="K64" s="36"/>
       <c r="L64" s="33"/>
       <c r="M64" s="25"/>
       <c r="N64" s="4"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
@@ -15729,29 +15730,29 @@
     </row>
     <row r="65" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
       <c r="J65" s="12"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
       <c r="M65" s="25"/>
       <c r="N65" s="4"/>
       <c r="O65" s="32"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="66"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -15766,29 +15767,29 @@
     </row>
     <row r="66" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
       <c r="J66" s="12"/>
       <c r="K66" s="36"/>
       <c r="L66" s="33"/>
       <c r="M66" s="25"/>
       <c r="N66" s="4"/>
       <c r="O66" s="32"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="66"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -15803,31 +15804,31 @@
     </row>
     <row r="67" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="10"/>
       <c r="K67" s="11"/>
       <c r="L67" s="33"/>
       <c r="M67" s="25"/>
       <c r="N67" s="4"/>
       <c r="O67" s="32"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
@@ -15842,29 +15843,29 @@
     </row>
     <row r="68" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
       <c r="J68" s="14"/>
       <c r="K68" s="31"/>
       <c r="L68" s="33"/>
       <c r="M68" s="25"/>
       <c r="N68" s="4"/>
       <c r="O68" s="32"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
@@ -15893,17 +15894,17 @@
       <c r="M69" s="25"/>
       <c r="N69" s="4"/>
       <c r="O69" s="32"/>
-      <c r="P69" s="66" t="s">
+      <c r="P69" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
-      <c r="V69" s="66"/>
-      <c r="W69" s="66"/>
-      <c r="X69" s="66"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -15971,6 +15972,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:X4"/>
     <mergeCell ref="P69:X69"/>
     <mergeCell ref="B6:V7"/>
     <mergeCell ref="W6:X7"/>
@@ -15983,17 +15995,6 @@
     <mergeCell ref="B63:I66"/>
     <mergeCell ref="B67:I67"/>
     <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
@@ -16034,29 +16035,29 @@
   <sheetData>
     <row r="1" spans="1:37" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A1" s="1"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
       <c r="W1" s="2"/>
       <c r="X1" s="3" t="s">
         <v>1</v>
@@ -16116,35 +16117,35 @@
     </row>
     <row r="3" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="48" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="57" t="s">
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
@@ -16161,33 +16162,33 @@
     </row>
     <row r="4" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="48" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="49"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -16243,33 +16244,33 @@
     </row>
     <row r="6" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="62" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="64"/>
+      <c r="X6" s="65"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
@@ -16286,29 +16287,29 @@
     </row>
     <row r="7" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
@@ -18277,10 +18278,10 @@
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
       <c r="AG50" s="4"/>
-      <c r="AH50" s="66"/>
-      <c r="AI50" s="66"/>
-      <c r="AJ50" s="66"/>
-      <c r="AK50" s="66"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="46"/>
+      <c r="AJ50" s="46"/>
+      <c r="AK50" s="46"/>
     </row>
     <row r="51" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
@@ -18646,15 +18647,15 @@
       <c r="M59" s="25"/>
       <c r="N59" s="4"/>
       <c r="O59" s="32"/>
-      <c r="P59" s="65"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="67"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="47"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
@@ -18671,31 +18672,31 @@
     </row>
     <row r="60" spans="1:37" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="59"/>
       <c r="H60" s="28"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="29"/>
       <c r="L60" s="29"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
       <c r="O60" s="32"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="66"/>
-      <c r="V60" s="66"/>
-      <c r="W60" s="66"/>
-      <c r="X60" s="66"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="47"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
@@ -18712,31 +18713,31 @@
     </row>
     <row r="61" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="30"/>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
       <c r="K61" s="29"/>
       <c r="L61" s="29"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
       <c r="O61" s="32"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="67"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="47"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
@@ -18767,15 +18768,15 @@
       <c r="M62" s="14"/>
       <c r="N62" s="4"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="67"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="66"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="47"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
@@ -18792,31 +18793,31 @@
     </row>
     <row r="63" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="73"/>
-      <c r="H63" s="73"/>
-      <c r="I63" s="73"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
       <c r="J63" s="12"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="25"/>
       <c r="N63" s="4"/>
       <c r="O63" s="32"/>
-      <c r="P63" s="66"/>
-      <c r="Q63" s="66"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="66"/>
-      <c r="T63" s="66"/>
-      <c r="U63" s="66"/>
-      <c r="V63" s="66"/>
-      <c r="W63" s="66"/>
-      <c r="X63" s="66"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="47"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
@@ -18833,29 +18834,29 @@
     </row>
     <row r="64" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="74"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
       <c r="J64" s="12"/>
       <c r="K64" s="36"/>
       <c r="L64" s="33"/>
       <c r="M64" s="25"/>
       <c r="N64" s="4"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="66"/>
-      <c r="Q64" s="66"/>
-      <c r="R64" s="67"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="66"/>
-      <c r="U64" s="66"/>
-      <c r="V64" s="66"/>
-      <c r="W64" s="66"/>
-      <c r="X64" s="66"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="47"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
@@ -18872,29 +18873,29 @@
     </row>
     <row r="65" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="73"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
       <c r="J65" s="12"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
       <c r="M65" s="25"/>
       <c r="N65" s="4"/>
       <c r="O65" s="32"/>
-      <c r="P65" s="66"/>
-      <c r="Q65" s="66"/>
-      <c r="R65" s="67"/>
-      <c r="S65" s="66"/>
-      <c r="T65" s="66"/>
-      <c r="U65" s="66"/>
-      <c r="V65" s="66"/>
-      <c r="W65" s="66"/>
-      <c r="X65" s="66"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="47"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -18911,29 +18912,29 @@
     </row>
     <row r="66" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="73"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
       <c r="J66" s="12"/>
       <c r="K66" s="36"/>
       <c r="L66" s="33"/>
       <c r="M66" s="25"/>
       <c r="N66" s="4"/>
       <c r="O66" s="32"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="66"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="47"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -18950,31 +18951,31 @@
     </row>
     <row r="67" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="10"/>
       <c r="K67" s="11"/>
       <c r="L67" s="33"/>
       <c r="M67" s="25"/>
       <c r="N67" s="4"/>
       <c r="O67" s="32"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="67"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="47"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
@@ -18991,29 +18992,29 @@
     </row>
     <row r="68" spans="1:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="76"/>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
       <c r="J68" s="14"/>
       <c r="K68" s="31"/>
       <c r="L68" s="33"/>
       <c r="M68" s="25"/>
       <c r="N68" s="4"/>
       <c r="O68" s="32"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="67"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="47"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
@@ -19044,17 +19045,17 @@
       <c r="M69" s="25"/>
       <c r="N69" s="4"/>
       <c r="O69" s="32"/>
-      <c r="P69" s="66" t="s">
+      <c r="P69" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="Q69" s="66"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="66"/>
-      <c r="U69" s="66"/>
-      <c r="V69" s="66"/>
-      <c r="W69" s="66"/>
-      <c r="X69" s="66"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -19126,6 +19127,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:X4"/>
     <mergeCell ref="P69:X69"/>
     <mergeCell ref="B6:V7"/>
     <mergeCell ref="W6:X7"/>
@@ -19138,17 +19150,6 @@
     <mergeCell ref="B63:I66"/>
     <mergeCell ref="B67:I67"/>
     <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
